--- a/SchedulingData/dynamic11/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>248.22</v>
+        <v>261.24</v>
       </c>
       <c r="D2" t="n">
-        <v>290.88</v>
+        <v>328.72</v>
       </c>
       <c r="E2" t="n">
-        <v>13.012</v>
+        <v>10.228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>259.6</v>
+        <v>257.06</v>
       </c>
       <c r="D3" t="n">
-        <v>303.14</v>
+        <v>302.86</v>
       </c>
       <c r="E3" t="n">
-        <v>12.336</v>
+        <v>12.324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>239.8</v>
+        <v>209.42</v>
       </c>
       <c r="D4" t="n">
-        <v>290.5</v>
+        <v>262.58</v>
       </c>
       <c r="E4" t="n">
-        <v>10.66</v>
+        <v>12.772</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>224.64</v>
+        <v>262.58</v>
       </c>
       <c r="D5" t="n">
-        <v>296.56</v>
+        <v>327.34</v>
       </c>
       <c r="E5" t="n">
-        <v>12.504</v>
+        <v>10.396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>290.88</v>
+        <v>328.72</v>
       </c>
       <c r="D6" t="n">
-        <v>340.36</v>
+        <v>373</v>
       </c>
       <c r="E6" t="n">
-        <v>9.204000000000001</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>290.5</v>
+        <v>218.28</v>
       </c>
       <c r="D7" t="n">
-        <v>354.5</v>
+        <v>264.3</v>
       </c>
       <c r="E7" t="n">
-        <v>7.36</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>208.12</v>
+        <v>232.76</v>
       </c>
       <c r="D8" t="n">
-        <v>280.04</v>
+        <v>275.8</v>
       </c>
       <c r="E8" t="n">
-        <v>14.156</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="9">
@@ -599,321 +599,321 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>340.36</v>
+        <v>275.8</v>
       </c>
       <c r="D9" t="n">
-        <v>377.58</v>
+        <v>313.3</v>
       </c>
       <c r="E9" t="n">
-        <v>6.612</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>377.58</v>
+        <v>302.86</v>
       </c>
       <c r="D10" t="n">
-        <v>442.08</v>
+        <v>375.96</v>
       </c>
       <c r="E10" t="n">
-        <v>3.752</v>
+        <v>8.603999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>296.56</v>
+        <v>264.3</v>
       </c>
       <c r="D11" t="n">
-        <v>350.76</v>
+        <v>306.42</v>
       </c>
       <c r="E11" t="n">
-        <v>9.204000000000001</v>
+        <v>12.028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>442.08</v>
+        <v>375.96</v>
       </c>
       <c r="D12" t="n">
-        <v>477.14</v>
+        <v>418.08</v>
       </c>
       <c r="E12" t="n">
-        <v>1.376</v>
+        <v>6.012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>477.14</v>
+        <v>418.08</v>
       </c>
       <c r="D13" t="n">
-        <v>556.09</v>
+        <v>476.68</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>2.772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>280.04</v>
+        <v>373</v>
       </c>
       <c r="D14" t="n">
-        <v>333.54</v>
+        <v>435.56</v>
       </c>
       <c r="E14" t="n">
-        <v>10.916</v>
+        <v>4.284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>264.84</v>
+        <v>208.94</v>
       </c>
       <c r="D15" t="n">
-        <v>302.34</v>
+        <v>253.22</v>
       </c>
       <c r="E15" t="n">
-        <v>11.416</v>
+        <v>13.368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>354.5</v>
+        <v>313.3</v>
       </c>
       <c r="D16" t="n">
-        <v>399.8</v>
+        <v>370.6</v>
       </c>
       <c r="E16" t="n">
-        <v>4.94</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>350.76</v>
+        <v>253.22</v>
       </c>
       <c r="D17" t="n">
-        <v>395.56</v>
+        <v>301.96</v>
       </c>
       <c r="E17" t="n">
-        <v>6.344</v>
+        <v>9.624000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>302.34</v>
+        <v>306.42</v>
       </c>
       <c r="D18" t="n">
-        <v>352.2</v>
+        <v>359.42</v>
       </c>
       <c r="E18" t="n">
-        <v>9.039999999999999</v>
+        <v>9.868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>395.56</v>
+        <v>476.68</v>
       </c>
       <c r="D19" t="n">
-        <v>433.36</v>
+        <v>538.14</v>
       </c>
       <c r="E19" t="n">
-        <v>3.704</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>333.54</v>
+        <v>538.14</v>
       </c>
       <c r="D20" t="n">
-        <v>391.02</v>
+        <v>573.22</v>
       </c>
       <c r="E20" t="n">
-        <v>6.808</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>352.2</v>
+        <v>370.6</v>
       </c>
       <c r="D21" t="n">
-        <v>402.82</v>
+        <v>402.7</v>
       </c>
       <c r="E21" t="n">
-        <v>5.608</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>391.02</v>
+        <v>402.7</v>
       </c>
       <c r="D22" t="n">
-        <v>428.22</v>
+        <v>499.3</v>
       </c>
       <c r="E22" t="n">
-        <v>4.728</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>303.14</v>
+        <v>359.42</v>
       </c>
       <c r="D23" t="n">
-        <v>350.24</v>
+        <v>404.32</v>
       </c>
       <c r="E23" t="n">
-        <v>9.256</v>
+        <v>7.008</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>556.09</v>
+        <v>301.96</v>
       </c>
       <c r="D24" t="n">
-        <v>615.77</v>
+        <v>347.02</v>
       </c>
       <c r="E24" t="n">
-        <v>27.192</v>
+        <v>7.248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>399.8</v>
+        <v>327.34</v>
       </c>
       <c r="D25" t="n">
-        <v>451.7</v>
+        <v>383.2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.86</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>451.7</v>
+        <v>347.02</v>
       </c>
       <c r="D26" t="n">
-        <v>529.88</v>
+        <v>391.32</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>3.948</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>529.88</v>
+        <v>391.32</v>
       </c>
       <c r="D27" t="n">
-        <v>569.28</v>
+        <v>445.4</v>
       </c>
       <c r="E27" t="n">
-        <v>26.76</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="28">
@@ -960,131 +960,131 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>569.28</v>
+        <v>445.4</v>
       </c>
       <c r="D28" t="n">
-        <v>633.74</v>
+        <v>548.48</v>
       </c>
       <c r="E28" t="n">
-        <v>24.384</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>633.74</v>
+        <v>499.3</v>
       </c>
       <c r="D29" t="n">
-        <v>673.64</v>
+        <v>582.66</v>
       </c>
       <c r="E29" t="n">
-        <v>21.524</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>402.82</v>
+        <v>582.66</v>
       </c>
       <c r="D30" t="n">
-        <v>452</v>
+        <v>683.1900000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>2.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>428.22</v>
+        <v>573.22</v>
       </c>
       <c r="D31" t="n">
-        <v>474.76</v>
+        <v>626.92</v>
       </c>
       <c r="E31" t="n">
-        <v>2.184</v>
+        <v>23.952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>615.77</v>
+        <v>404.32</v>
       </c>
       <c r="D32" t="n">
-        <v>658.47</v>
+        <v>437.22</v>
       </c>
       <c r="E32" t="n">
-        <v>25.032</v>
+        <v>4.848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>452</v>
+        <v>548.48</v>
       </c>
       <c r="D33" t="n">
-        <v>519.3</v>
+        <v>607.42</v>
       </c>
       <c r="E33" t="n">
-        <v>0.64</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>519.3</v>
+        <v>435.56</v>
       </c>
       <c r="D34" t="n">
-        <v>619.3200000000001</v>
+        <v>494.26</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="35">
@@ -1093,169 +1093,207 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>350.24</v>
+        <v>494.26</v>
       </c>
       <c r="D35" t="n">
-        <v>401.94</v>
+        <v>598.47</v>
       </c>
       <c r="E35" t="n">
-        <v>7.176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>474.76</v>
+        <v>383.2</v>
       </c>
       <c r="D36" t="n">
-        <v>561.99</v>
+        <v>428</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>561.99</v>
+        <v>428</v>
       </c>
       <c r="D37" t="n">
-        <v>636.27</v>
+        <v>475.12</v>
       </c>
       <c r="E37" t="n">
-        <v>27.712</v>
+        <v>1.968</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>619.3200000000001</v>
+        <v>475.12</v>
       </c>
       <c r="D38" t="n">
-        <v>678.62</v>
+        <v>562.78</v>
       </c>
       <c r="E38" t="n">
-        <v>26.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>401.94</v>
+        <v>626.92</v>
       </c>
       <c r="D39" t="n">
-        <v>450.7</v>
+        <v>703.62</v>
       </c>
       <c r="E39" t="n">
-        <v>4.42</v>
+        <v>20.872</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>433.36</v>
+        <v>598.47</v>
       </c>
       <c r="D40" t="n">
-        <v>472.22</v>
+        <v>631.17</v>
       </c>
       <c r="E40" t="n">
-        <v>0.948</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>472.22</v>
+        <v>631.17</v>
       </c>
       <c r="D41" t="n">
-        <v>571.62</v>
+        <v>679.9299999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>25.164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450.7</v>
+        <v>437.22</v>
       </c>
       <c r="D42" t="n">
-        <v>510.18</v>
+        <v>498.76</v>
       </c>
       <c r="E42" t="n">
-        <v>1.612</v>
+        <v>2.304</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>510.18</v>
+        <v>498.76</v>
       </c>
       <c r="D43" t="n">
-        <v>598.66</v>
+        <v>585.75</v>
       </c>
       <c r="E43" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>pond60</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>585.75</v>
+      </c>
+      <c r="D44" t="n">
+        <v>646.11</v>
+      </c>
+      <c r="E44" t="n">
+        <v>27.624</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>pond4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>562.78</v>
+      </c>
+      <c r="D45" t="n">
+        <v>628.58</v>
+      </c>
+      <c r="E45" t="n">
+        <v>27.58</v>
       </c>
     </row>
   </sheetData>
